--- a/trunk/1. Project management/9. Weekly report and evaluation/Team's evaluation/AD_PM_TeamEvaluation_Week08_26.12 - 01.01.xlsx
+++ b/trunk/1. Project management/9. Weekly report and evaluation/Team's evaluation/AD_PM_TeamEvaluation_Week08_26.12 - 01.01.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ngoc\Dropbox\AD-DeadlineTeam\1. Project management\7. Report and evaluation\1. Evaluation\2. Team's evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\1. Project management\9. Weekly report and evaluation\Team's evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="804" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="804" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="LeNgocChau" sheetId="1" r:id="rId1"/>
@@ -2876,8 +2876,8 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3210,8 +3210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3331,24 +3331,24 @@
         <v>13</v>
       </c>
       <c r="C5" s="32">
-        <f>AVERAGE(KhauThanhDao!C5,LeNgocChau!C4,NguyenPhanXuanHuy!C5,HuynhTrongKhang!C5,TaNgocThienPhu!C5)</f>
-        <v>92</v>
+        <f>AVERAGE(KhauThanhDao!C4,LeNgocChau!C4,NguyenPhanXuanHuy!C5,HuynhTrongKhang!C5,TaNgocThienPhu!C5)</f>
+        <v>95</v>
       </c>
       <c r="D5" s="32">
-        <f>AVERAGE(KhauThanhDao!D5,LeNgocChau!D4,NguyenPhanXuanHuy!D5,HuynhTrongKhang!D5,TaNgocThienPhu!D5)</f>
-        <v>92</v>
+        <f>AVERAGE(KhauThanhDao!D4,LeNgocChau!D4,NguyenPhanXuanHuy!D5,HuynhTrongKhang!D5,TaNgocThienPhu!D5)</f>
+        <v>95</v>
       </c>
       <c r="E5" s="32">
-        <f>AVERAGE(KhauThanhDao!E5,LeNgocChau!E4,NguyenPhanXuanHuy!E5,HuynhTrongKhang!E5,TaNgocThienPhu!E5)</f>
-        <v>98</v>
+        <f>AVERAGE(KhauThanhDao!E4,LeNgocChau!E4,NguyenPhanXuanHuy!E5,HuynhTrongKhang!E5,TaNgocThienPhu!E5)</f>
+        <v>100</v>
       </c>
       <c r="F5" s="32">
-        <f>AVERAGE(KhauThanhDao!F5,LeNgocChau!F4,NguyenPhanXuanHuy!F5,HuynhTrongKhang!F5,TaNgocThienPhu!F5)</f>
-        <v>92</v>
+        <f>AVERAGE(KhauThanhDao!F4,LeNgocChau!F4,NguyenPhanXuanHuy!F5,HuynhTrongKhang!F5,TaNgocThienPhu!F5)</f>
+        <v>95</v>
       </c>
       <c r="G5" s="23">
         <f t="shared" si="0"/>
-        <v>0.93500000000000005</v>
+        <v>0.96250000000000002</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>31</v>
